--- a/LF/TAS/Senegal/TAS2/Jun 2023/sn_lf_tas2_20306_1_site.xlsx
+++ b/LF/TAS/Senegal/TAS2/Jun 2023/sn_lf_tas2_20306_1_site.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Senegal\TAS2\Jun 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807147C6-C505-4764-B556-7CA3944AC10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A516C-A52F-4176-99AD-2EB154F51453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2410,10 +2410,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>(2023 Jui) 1. TAS(1-3) FL - Formulaire Site</t>
-  </si>
-  <si>
     <t>sn_lf_tas2_20306_1_site</t>
+  </si>
+  <si>
+    <t>(2023 Juin) 1. TAS2 FL - Formulaire Site</t>
   </si>
 </sst>
 </file>
@@ -2543,7 +2543,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2607,126 +2607,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5868,7 +5755,7 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="25"/>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
@@ -25166,7 +25053,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -25189,10 +25076,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>790</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>791</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>101</v>
@@ -37347,13 +37234,13 @@
     <sortCondition ref="M2:M569"/>
   </sortState>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I120 I570:I1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
